--- a/results/tests_results/df_back_operations_2024-01-01.xlsx
+++ b/results/tests_results/df_back_operations_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,45 +450,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>y_tests</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>y_tests</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>y_pred</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>oper_rent</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>oper_rent</t>
+          <t>oper_rent_gross</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>oper_rent_gross</t>
+          <t>oper_rent_nets</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>oper_rent_nets</t>
+          <t>gross_capital</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gross_capital</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>nets_capital</t>
         </is>
@@ -496,239 +491,115 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>8.32</v>
+        <v>8.426</v>
       </c>
       <c r="C2" t="n">
-        <v>8.460000000000001</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45302</v>
+        <v>45310</v>
       </c>
       <c r="B3" t="n">
-        <v>8.279999999999999</v>
+        <v>7.996</v>
       </c>
       <c r="C3" t="n">
-        <v>8.454000000000001</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>-0.05103251839544265</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.004807692307692402</v>
+        <v>-0.05103251839544265</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004807692307692402</v>
+        <v>-0.05603251839544265</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.009807692307692403</v>
+        <v>9489.674816045574</v>
       </c>
       <c r="J3" t="n">
-        <v>9951.923076923076</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9901.923076923076</v>
+        <v>9439.674816045574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45313</v>
       </c>
       <c r="B4" t="n">
-        <v>8.114000000000001</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.106</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45338</v>
+        <v>45415</v>
       </c>
       <c r="B5" t="n">
-        <v>9.016</v>
+        <v>9.85</v>
       </c>
       <c r="C5" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>0.2053352912383748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1111658861227507</v>
+        <v>0.2053352912383748</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1111658861227507</v>
+        <v>0.2003352912383748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1061658861227507</v>
+        <v>11438.23995815576</v>
       </c>
       <c r="J5" t="n">
-        <v>11058.23742439468</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10953.16951470393</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.098000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1705869421850956</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1705869421850956</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1655869421850956</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12944.62833257896</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12766.87136187876</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.295</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>11330.77481951361</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/tests_results/df_back_operations_2024-01-01.xlsx
+++ b/results/tests_results/df_back_operations_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>y_preds</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -494,10 +494,10 @@
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>8.426</v>
+        <v>4742.8301</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45310</v>
+        <v>45303</v>
       </c>
       <c r="B3" t="n">
-        <v>7.996</v>
+        <v>4783.8301</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -530,30 +530,30 @@
         <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05103251839544265</v>
+        <v>0.008644627603253241</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05103251839544265</v>
+        <v>0.008644627603253241</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.05603251839544265</v>
+        <v>0.007644627603253241</v>
       </c>
       <c r="I3" t="n">
-        <v>9489.674816045574</v>
+        <v>10086.44627603253</v>
       </c>
       <c r="J3" t="n">
-        <v>9439.674816045574</v>
+        <v>10076.44627603253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45307</v>
       </c>
       <c r="B4" t="n">
-        <v>8.172000000000001</v>
+        <v>4765.98</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -571,13 +571,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45415</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="n">
-        <v>9.85</v>
+        <v>5078.1802</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -586,20 +586,324 @@
         <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2053352912383748</v>
+        <v>0.06550598198062096</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2053352912383748</v>
+        <v>0.06550598198062096</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2003352912383748</v>
+        <v>0.06450598198062096</v>
       </c>
       <c r="I5" t="n">
-        <v>11438.23995815576</v>
+        <v>10747.16884403882</v>
       </c>
       <c r="J5" t="n">
-        <v>11330.77481951361</v>
-      </c>
+        <v>10726.43733794298</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5069.7598</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5123.6899</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01063760456659124</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01063760456659124</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.00963760456659124</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10861.4929764121</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10829.81449941439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5175.27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5243.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0132360244006593</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0132360244006593</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0122360244006593</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11005.25596247548</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10962.32837388384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5205.8101</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5123.4102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01582844906309577</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.01582844906309577</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.01682844906309577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10831.0598290471</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10777.84938923101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5061.8198</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5048.4199</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.002647249512912397</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.002647249512912397</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.003647249512912397</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10802.38731119033</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10738.53988329589</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5099.96</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5246.6802</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02876889230503754</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02876889230503754</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02776889230503754</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11113.16002838327</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11036.73724082848</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5308.1499</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/tests_results/df_back_operations_2024-01-01.xlsx
+++ b/results/tests_results/df_back_operations_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,40 +450,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>y_tests</t>
+          <t>y_mavgs</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>y_target</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>y_preds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>y_combi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>oper_rent</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>oper_rent_gross</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oper_rent_nets</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gross_capital</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>nets_capital</t>
         </is>
@@ -494,7 +504,7 @@
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>4742.8301</v>
+        <v>8.426</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,51 +516,63 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45303</v>
+        <v>45294</v>
       </c>
       <c r="B3" t="n">
-        <v>4783.8301</v>
+        <v>8.32</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>-1</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.008644627603253241</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.008644627603253241</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.007644627603253241</v>
+        <v>-0.01258010918585328</v>
       </c>
       <c r="I3" t="n">
-        <v>10086.44627603253</v>
+        <v>-0.01258010918585328</v>
       </c>
       <c r="J3" t="n">
-        <v>10076.44627603253</v>
+        <v>-0.01758010918585328</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9874.198908141467</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9824.198908141467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45307</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="n">
-        <v>4765.98</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -562,19 +584,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45349</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="n">
-        <v>5078.1802</v>
+        <v>9.186</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -583,30 +611,36 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>-1</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.06550598198062096</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.06550598198062096</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.06450598198062096</v>
+        <v>0.1321173280749321</v>
       </c>
       <c r="I5" t="n">
-        <v>10747.16884403882</v>
+        <v>0.1321173280749321</v>
       </c>
       <c r="J5" t="n">
-        <v>10726.43733794298</v>
+        <v>0.1271173280749321</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11178.75168476553</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11073.02482382108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45350</v>
+        <v>45401</v>
       </c>
       <c r="B6" t="n">
-        <v>5069.7598</v>
+        <v>10.205</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -615,110 +649,134 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45359</v>
+        <v>45407</v>
       </c>
       <c r="B7" t="n">
-        <v>5123.6899</v>
+        <v>10.505</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>-1</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.01063760456659124</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01063760456659124</v>
-      </c>
       <c r="H7" t="n">
-        <v>0.00963760456659124</v>
+        <v>0.02939735423811873</v>
       </c>
       <c r="I7" t="n">
-        <v>10861.4929764121</v>
+        <v>0.02939735423811873</v>
       </c>
       <c r="J7" t="n">
-        <v>10829.81449941439</v>
+        <v>0.02439735423811873</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11507.37740798255</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11343.17733293532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45363</v>
+        <v>45411</v>
       </c>
       <c r="B8" t="n">
-        <v>5175.27</v>
+        <v>10.9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45419</v>
       </c>
       <c r="B9" t="n">
-        <v>5243.77</v>
+        <v>10.195</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
         <v>-1</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0132360244006593</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0132360244006593</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.0122360244006593</v>
+        <v>-0.06467889908256885</v>
       </c>
       <c r="I9" t="n">
-        <v>11005.25596247548</v>
+        <v>-0.06467889908256885</v>
       </c>
       <c r="J9" t="n">
-        <v>10962.32837388384</v>
+        <v>-0.06967889908256886</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10763.09290590661</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10552.79722427804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45384</v>
+        <v>45428</v>
       </c>
       <c r="B10" t="n">
-        <v>5205.8101</v>
+        <v>9.974</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -727,183 +785,29 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5123.4102</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>-1</v>
       </c>
-      <c r="F11" t="n">
-        <v>-0.01582844906309577</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.01582844906309577</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.01682844906309577</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10831.0598290471</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10777.84938923101</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5061.8198</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45407</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5048.4199</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.002647249512912397</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.002647249512912397</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.003647249512912397</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10802.38731119033</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10738.53988329589</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45408</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5099.96</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5246.6802</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.02876889230503754</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.02876889230503754</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.02776889230503754</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11113.16002838327</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11036.73724082848</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5308.1499</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>-0.02167729279058361</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.02167729279058361</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.02667729279058361</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10529.77818965302</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10271.27716296632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/tests_results/df_back_operations_2024-01-01.xlsx
+++ b/results/tests_results/df_back_operations_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,19 +501,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45293</v>
+        <v>45315</v>
       </c>
       <c r="B2" t="n">
-        <v>8.426</v>
+        <v>4868.5498</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45294</v>
+        <v>45338</v>
       </c>
       <c r="B3" t="n">
-        <v>8.32</v>
+        <v>5005.5698</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -552,27 +552,27 @@
         <v>-1</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01258010918585328</v>
+        <v>0.02814390437168801</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01258010918585328</v>
+        <v>0.02814390437168801</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.01758010918585328</v>
+        <v>0.02314390437168801</v>
       </c>
       <c r="K3" t="n">
-        <v>9874.198908141467</v>
+        <v>10281.43904371688</v>
       </c>
       <c r="L3" t="n">
-        <v>9824.198908141467</v>
+        <v>10231.43904371688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45343</v>
       </c>
       <c r="B4" t="n">
-        <v>8.114000000000001</v>
+        <v>4981.7998</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -599,19 +599,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45336</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="n">
-        <v>9.186</v>
+        <v>5069.5298</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -620,36 +620,36 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1321173280749321</v>
+        <v>0.01761010147376862</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1321173280749321</v>
+        <v>0.01761010147376862</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1271173280749321</v>
+        <v>0.01261010147376862</v>
       </c>
       <c r="K5" t="n">
-        <v>11178.75168476553</v>
+        <v>10462.4962285731</v>
       </c>
       <c r="L5" t="n">
-        <v>11073.02482382108</v>
+        <v>10360.45852828083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45401</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="n">
-        <v>10.205</v>
+        <v>5069.7598</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45407</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="n">
-        <v>10.505</v>
+        <v>5123.6899</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -688,36 +688,36 @@
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02939735423811873</v>
+        <v>0.01063760456659124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02939735423811873</v>
+        <v>0.01063760456659124</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02439735423811873</v>
+        <v>0.005637604566591241</v>
       </c>
       <c r="K7" t="n">
-        <v>11507.37740798255</v>
+        <v>10573.79212623212</v>
       </c>
       <c r="L7" t="n">
-        <v>11343.17733293532</v>
+        <v>10418.86669659185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45411</v>
+        <v>45369</v>
       </c>
       <c r="B8" t="n">
-        <v>10.9</v>
+        <v>5149.4199</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45419</v>
+        <v>45407</v>
       </c>
       <c r="B9" t="n">
-        <v>10.195</v>
+        <v>5048.4199</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -756,57 +756,87 @@
         <v>-1</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.06467889908256885</v>
+        <v>-0.01961385980583952</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06467889908256885</v>
+        <v>-0.01961385980583952</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06967889908256886</v>
+        <v>-0.02461385980583952</v>
       </c>
       <c r="K9" t="n">
-        <v>10763.09290590661</v>
+        <v>10366.39924985211</v>
       </c>
       <c r="L9" t="n">
-        <v>10552.79722427804</v>
+        <v>10162.41817238621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45428</v>
+        <v>45414</v>
       </c>
       <c r="B10" t="n">
-        <v>9.974</v>
+        <v>5064.2002</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5303.27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
         <v>-1</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.02167729279058361</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.02167729279058361</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-0.02667729279058361</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10529.77818965302</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10271.27716296632</v>
+      <c r="H11" t="n">
+        <v>0.04720780983342654</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04720780983342654</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04220780983342654</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10855.7742542965</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10591.35158605404</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_back_operations_2024-01-01.xlsx
+++ b/results/tests_results/df_back_operations_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,25 +475,50 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>day_g_returns</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day_n_returns</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>b&amp;h_g_capital</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>str_capital</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day_str_returns</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>oper_rent</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>oper_rent_gross</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>oper_rent_nets</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>gross_capital</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>nets_capital</t>
         </is>
@@ -501,10 +526,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45315</v>
+        <v>45294</v>
       </c>
       <c r="B2" t="n">
-        <v>4868.5498</v>
+        <v>8.32</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -522,22 +547,37 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>-0.01258010918585328</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.01458010918585328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9874.198908141467</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9980</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.002000000000000002</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45338</v>
+        <v>45300</v>
       </c>
       <c r="B3" t="n">
-        <v>5005.5698</v>
+        <v>8.414</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -546,36 +586,51 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02814390437168801</v>
+        <v>-0.02185538246919327</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02814390437168801</v>
+        <v>-0.02385538246919328</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02314390437168801</v>
+        <v>9985.75836695941</v>
       </c>
       <c r="K3" t="n">
-        <v>10281.43904371688</v>
+        <v>10070</v>
       </c>
       <c r="L3" t="n">
-        <v>10231.43904371688</v>
+        <v>-0.02384645211322223</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01129807692307683</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01129807692307683</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.009298076923076827</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10112.98076923077</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10092.98076923077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45343</v>
+        <v>45313</v>
       </c>
       <c r="B4" t="n">
-        <v>4981.7998</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -584,63 +639,93 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0.02201100550275137</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02001100550275137</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9698.552100640871</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10049</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.002085402184707097</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45316</v>
       </c>
       <c r="B5" t="n">
-        <v>5069.5298</v>
+        <v>8.09</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01761010147376862</v>
+        <v>-0.01653294432287877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01761010147376862</v>
+        <v>-0.01853294432287877</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01261010147376862</v>
+        <v>9601.234274863515</v>
       </c>
       <c r="K5" t="n">
-        <v>10462.4962285731</v>
+        <v>9927</v>
       </c>
       <c r="L5" t="n">
-        <v>10360.45852828083</v>
+        <v>-0.01858625803262481</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.01003426333822821</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01003426333822821</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.01203426333822821</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10011.50445705787</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9971.519180786172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45350</v>
+        <v>45320</v>
       </c>
       <c r="B6" t="n">
-        <v>5069.7598</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -652,66 +737,96 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0.002718734552644708</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0007187345526447082</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9629.717540944694</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9907</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.002014707363755419</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45359</v>
+        <v>45337</v>
       </c>
       <c r="B7" t="n">
-        <v>5123.6899</v>
+        <v>9.042</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01063760456659124</v>
+        <v>-0.01567602873938601</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01063760456659124</v>
+        <v>-0.01767602873938601</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005637604566591241</v>
+        <v>10731.07049608355</v>
       </c>
       <c r="K7" t="n">
-        <v>10573.79212623212</v>
+        <v>11010</v>
       </c>
       <c r="L7" t="n">
-        <v>10418.86669659185</v>
+        <v>-0.01766595289079231</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1143702243036726</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1143702243036726</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1123702243036726</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11156.52246742879</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11092.02102777949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45342</v>
       </c>
       <c r="B8" t="n">
-        <v>5149.4199</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -720,66 +835,96 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>0.007976955461998836</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.005976955461998836</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10797.53145027297</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10987</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.002089009990917323</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45407</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="n">
-        <v>5048.4199</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-1</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01961385980583952</v>
+        <v>-0.009094754653130366</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01961385980583952</v>
+        <v>-0.01109475465313037</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02461385980583952</v>
+        <v>11120.34179919297</v>
       </c>
       <c r="K9" t="n">
-        <v>10366.39924985211</v>
+        <v>11290</v>
       </c>
       <c r="L9" t="n">
-        <v>10162.41817238621</v>
+        <v>-0.01112376280984495</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0298966805891403</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0298966805891403</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0278966805891403</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11490.06545612308</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>11401.45159547948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45414</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="n">
-        <v>5064.2002</v>
+        <v>9.362</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -788,56 +933,523 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>0.01915959068147188</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01715959068147188</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11110.84737716592</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11267</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.002037201062887517</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45429</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="n">
-        <v>5303.27</v>
+        <v>11.005</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>-1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04720780983342654</v>
+        <v>-0.0204717400979082</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04720780983342654</v>
+        <v>-0.0224717400979082</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04220780983342654</v>
+        <v>13060.76430097318</v>
       </c>
       <c r="K11" t="n">
-        <v>10855.7742542965</v>
+        <v>13205</v>
       </c>
       <c r="L11" t="n">
-        <v>10591.35158605404</v>
-      </c>
+        <v>-0.02250351617440227</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.175496688741722</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.175496688741722</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.173496688741722</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13506.53389709832</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13379.5656941442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02589841397309778</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02389841397309778</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12129.12413956801</v>
+      </c>
+      <c r="K12" t="n">
+        <v>13178</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.002044680045437341</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.505</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.004265402843601884</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.006265402843601884</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12467.36292428199</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13515</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.006323064480552865</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.02788649706457935</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02788649706457935</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.02588649706457935</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13883.1838149724</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13725.91578221101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.985</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04569252736791984</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04369252736791984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13037.02824590553</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13487</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.002071772105068481</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.007737824305871555</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.009737824305871555</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12936.15001186803</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.00978720249128795</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.007737824305871555</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.007737824305871555</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.009737824305871555</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13775.75817780602</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13592.25522588665</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.195</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03607723577235777</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03407723577235777</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12099.45407073344</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13328</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.002021714713590361</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.06705539358600576</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.06905539358600576</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11393.30643247092</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12524</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0689860243829914</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.05836194212849444</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.05836194212849444</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.06036194212849444</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12971.77817625677</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12771.80030254595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01809954751131215</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01609954751131215</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11749.34725848564</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12498</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.00207601405301816</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.02215686274509798</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.02415686274509798</v>
+      </c>
+      <c r="J19" t="n">
+        <v>11837.17066223594</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12565</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.02415346380863626</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.007474747474747412</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.007474747474747412</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.005474747474747412</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13068.73894242273</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12841.72268400029</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.002403364710594769</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0004033647105947686</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11879.8955613577</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12539</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.002069239952248281</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
